--- a/assets/excel/TemplateReportv4Exp_3.xlsx
+++ b/assets/excel/TemplateReportv4Exp_3.xlsx
@@ -112,11 +112,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0\ &quot;Pcs&quot;"/>
     <numFmt numFmtId="180" formatCode="0\ &quot;Detik&quot;"/>
     <numFmt numFmtId="181" formatCode="0.00\ &quot;Menit&quot;"/>
@@ -169,16 +169,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +200,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -207,61 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,21 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,17 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,18 +340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,7 +352,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,13 +400,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,61 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,67 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,8 +796,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,15 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -837,6 +828,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +873,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -866,42 +890,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,130 +913,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,22 +1070,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -12212,7 +12212,7 @@
   <dimension ref="B5:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
@@ -12327,7 +12327,10 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <f t="shared" ref="F11:F15" si="0">IF(B11&lt;&gt;"",AVERAGE(C11:E11),0)</f>
+        <v>0</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="J11" s="39"/>
@@ -12344,7 +12347,10 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="19"/>
       <c r="H12" s="18"/>
       <c r="J12" s="39"/>
@@ -12361,7 +12367,10 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="19"/>
       <c r="H13" s="18"/>
       <c r="J13" s="39"/>
@@ -12378,7 +12387,10 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
       <c r="J14" s="39"/>
@@ -12395,7 +12407,10 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
       <c r="J15" s="39"/>
@@ -12480,12 +12495,12 @@
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="27">
-        <f t="shared" ref="F20:F24" si="0">E20/60</f>
+        <f t="shared" ref="F20:F24" si="1">E20/60</f>
         <v>0</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="28">
-        <f t="shared" ref="H20:H24" si="1">G20/60</f>
+        <f t="shared" ref="H20:H24" si="2">G20/60</f>
         <v>0</v>
       </c>
       <c r="J20" s="39"/>
@@ -12503,12 +12518,12 @@
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="39"/>
@@ -12526,12 +12541,12 @@
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="39"/>
@@ -12549,12 +12564,12 @@
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12564,12 +12579,12 @@
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
       <c r="F24" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/assets/excel/TemplateReportv4Exp_3.xlsx
+++ b/assets/excel/TemplateReportv4Exp_3.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="19200" windowHeight="11655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Report OEE" sheetId="1" r:id="rId1"/>
     <sheet name="Graphical" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -112,11 +113,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0\ &quot;Pcs&quot;"/>
     <numFmt numFmtId="180" formatCode="0\ &quot;Detik&quot;"/>
     <numFmt numFmtId="181" formatCode="0.00\ &quot;Menit&quot;"/>
@@ -170,83 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,9 +193,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,10 +238,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,7 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,19 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,19 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,61 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,19 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,11 +794,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +824,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -832,30 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -867,6 +859,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,10 +896,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,130 +914,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,22 +1071,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -12211,7 +12212,7 @@
   <sheetPr/>
   <dimension ref="B5:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -12707,4 +12708,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/assets/excel/TemplateReportv4Exp_3.xlsx
+++ b/assets/excel/TemplateReportv4Exp_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11655" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Report OEE" sheetId="1" r:id="rId1"/>
@@ -113,12 +113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0\ &quot;Pcs&quot;"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0\ &quot;Pcs&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="0\ &quot;Detik&quot;"/>
     <numFmt numFmtId="181" formatCode="0.00\ &quot;Menit&quot;"/>
   </numFmts>
@@ -177,22 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,6 +187,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +237,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -239,26 +262,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,22 +285,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,13 +309,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +359,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +413,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,61 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,67 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,21 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -848,6 +833,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -872,11 +866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,10 +896,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,130 +914,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,35 +1071,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2145,6 +2145,444 @@
   <c:externalData r:id="rId1">
     <c:autoUpdate val="0"/>
   </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Raw!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Raw!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Raw!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Raw!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Raw!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Raw!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="17795137"/>
+        <c:axId val="345232340"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="17795137"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345232340"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345232340"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17795137"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6608,6 +7046,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6929,6 +7407,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11944,6 +12938,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5905500" y="920750"/>
+        <a:ext cx="6686550" cy="3923665"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12716,12 +13745,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A3" sqref="A3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/excel/TemplateReportv4Exp_3.xlsx
+++ b/assets/excel/TemplateReportv4Exp_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Report OEE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>OEE REPORT</t>
   </si>
@@ -107,18 +107,30 @@
   <si>
     <t>Downtime log records</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Line Name</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>Filling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0\ &quot;Pcs&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0\ &quot;Pcs&quot;"/>
     <numFmt numFmtId="180" formatCode="0\ &quot;Detik&quot;"/>
     <numFmt numFmtId="181" formatCode="0.00\ &quot;Menit&quot;"/>
   </numFmts>
@@ -132,13 +144,20 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -157,21 +176,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,93 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +229,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -306,9 +304,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +353,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +431,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,55 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,67 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,41 +533,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -794,30 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -835,24 +838,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,11 +873,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,207 +941,211 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2203,11 +2234,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Raw!$A$4</c:f>
+              <c:f>Raw!$A$4:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>2023-07-07 Filling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2228,167 +2259,43 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Raw!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Raw!$C$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Availability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Performance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quality</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OEE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Raw!$B$4:$F$4</c:f>
+              <c:f>Raw!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raw!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>96.13</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Raw!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raw!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raw!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
+                <c:pt idx="1">
+                  <c:v>100.3</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Raw!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raw!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Raw!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Raw!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Raw!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>98.81</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2404,11 +2311,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="17795137"/>
-        <c:axId val="345232340"/>
+        <c:axId val="506701472"/>
+        <c:axId val="372372550"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17795137"/>
+        <c:axId val="506701472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2356,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345232340"/>
+        <c:crossAx val="372372550"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345232340"/>
+        <c:axId val="372372550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2414,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17795137"/>
+        <c:crossAx val="506701472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2519,37 +2426,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -12950,25 +12826,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>412115</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5905500" y="920750"/>
-        <a:ext cx="6686550" cy="3923665"/>
+        <a:off x="6327775" y="1807210"/>
+        <a:ext cx="6885940" cy="3380740"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13271,349 +13147,349 @@
   <sheetData>
     <row r="5" ht="15.75"/>
     <row r="6" ht="26.25" spans="8:10">
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="8:10">
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="21.75" spans="2:10">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="C8" s="6"/>
+      <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" ht="15.75" spans="2:3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="2:17">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="Q10" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19">
         <f t="shared" ref="F11:F15" si="0">IF(B11&lt;&gt;"",AVERAGE(C11:E11),0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17">
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17">
+      <c r="B13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17">
+      <c r="B14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" ht="15.75" spans="2:17">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="10:17">
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="10:17">
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" ht="15.75" spans="2:17">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" ht="15.75" spans="2:17">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29">
         <f t="shared" ref="F20:F24" si="1">E20/60</f>
         <v>0</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="28">
+      <c r="G20" s="28"/>
+      <c r="H20" s="30">
         <f t="shared" ref="H20:H24" si="2">G20/60</f>
         <v>0</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="28">
+      <c r="G21" s="28"/>
+      <c r="H21" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="28">
+      <c r="G22" s="28"/>
+      <c r="H22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="28">
+      <c r="G23" s="28"/>
+      <c r="H23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="2:8">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="28">
+      <c r="G24" s="36"/>
+      <c r="H24" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13659,73 +13535,73 @@
   <sheetData>
     <row r="2" ht="15.75"/>
     <row r="3" ht="26.25" spans="7:9">
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="7:9">
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="7:9">
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <f>'Report OEE'!I8</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <f>'Report OEE'!J8</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="2:29">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="L8" s="8" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="L8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13742,14 +13618,55 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>96.13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>98.81</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/assets/excel/TemplateReportv4Exp_3.xlsx
+++ b/assets/excel/TemplateReportv4Exp_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>OEE REPORT</t>
   </si>
@@ -113,25 +113,19 @@
   <si>
     <t>Line Name</t>
   </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>Filling</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0\ &quot;Detik&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0\ &quot;Pcs&quot;"/>
-    <numFmt numFmtId="180" formatCode="0\ &quot;Detik&quot;"/>
+    <numFmt numFmtId="180" formatCode="0\ &quot;Pcs&quot;"/>
     <numFmt numFmtId="181" formatCode="0.00\ &quot;Menit&quot;"/>
   </numFmts>
   <fonts count="26">
@@ -183,7 +177,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -205,6 +199,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +214,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -228,30 +268,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,24 +291,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -290,37 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,25 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,13 +377,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,55 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,17 +815,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,11 +835,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,26 +874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,8 +907,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,10 +917,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,127 +938,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,36 +1096,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2238,7 +2232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2023-07-07 Filling</c:v>
+                  <c:v>Date Line Name</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2284,18 +2278,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>96.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.81</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13621,7 +13603,7 @@
   <dimension ref="A3:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -13647,24 +13629,12 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2">
-        <v>96.13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100.3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>98.81</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/excel/TemplateReportv4Exp_3.xlsx
+++ b/assets/excel/TemplateReportv4Exp_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" activeTab="2"/>
+    <workbookView windowWidth="21274" windowHeight="8168"/>
   </bookViews>
   <sheets>
     <sheet name="Report OEE" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0\ &quot;Detik&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0\ &quot;Pcs&quot;"/>
+    <numFmt numFmtId="179" formatCode="0\ &quot;Pcs&quot;"/>
+    <numFmt numFmtId="180" formatCode="0\ &quot;Detik&quot;"/>
     <numFmt numFmtId="181" formatCode="0.00\ &quot;Menit&quot;"/>
   </numFmts>
   <fonts count="26">
@@ -193,20 +193,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,7 +207,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -230,29 +245,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -260,17 +260,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,23 +274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +298,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +347,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,55 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,55 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,17 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -846,6 +835,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,41 +902,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,127 +938,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,16 +1116,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -12473,7 +12473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2955290" cy="803275"/>
+          <a:ext cx="3101975" cy="780415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12522,7 +12522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2946400" cy="793750"/>
+          <a:ext cx="3105785" cy="780415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12550,8 +12550,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="558800" y="9124950"/>
-        <a:ext cx="6071235" cy="3202305"/>
+        <a:off x="558800" y="8875395"/>
+        <a:ext cx="6433820" cy="3105150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12580,8 +12580,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="574040" y="12616180"/>
-        <a:ext cx="6086475" cy="3202305"/>
+        <a:off x="589280" y="12258040"/>
+        <a:ext cx="6433820" cy="3105150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12610,8 +12610,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="582295" y="16163925"/>
-        <a:ext cx="6104255" cy="3202305"/>
+        <a:off x="615315" y="15702915"/>
+        <a:ext cx="6433820" cy="3105150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12640,8 +12640,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="591820" y="2185670"/>
-        <a:ext cx="6104255" cy="3202305"/>
+        <a:off x="624840" y="2141855"/>
+        <a:ext cx="6433820" cy="3105150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12670,8 +12670,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="601345" y="5689600"/>
-        <a:ext cx="6104255" cy="3202305"/>
+        <a:off x="634365" y="5542915"/>
+        <a:ext cx="6433820" cy="3105150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12700,8 +12700,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8836025" y="5741035"/>
-        <a:ext cx="4836795" cy="3198495"/>
+        <a:off x="9335135" y="5588635"/>
+        <a:ext cx="5115560" cy="3107055"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12730,8 +12730,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13670280" y="2136140"/>
-        <a:ext cx="4719320" cy="3214370"/>
+        <a:off x="14448155" y="2092325"/>
+        <a:ext cx="4951095" cy="3117215"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12760,8 +12760,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18623280" y="2152015"/>
-        <a:ext cx="4620895" cy="3201035"/>
+        <a:off x="19632930" y="2108200"/>
+        <a:ext cx="4919345" cy="3103880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12790,8 +12790,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8828405" y="2134870"/>
-        <a:ext cx="4699000" cy="3201035"/>
+        <a:off x="9327515" y="2091055"/>
+        <a:ext cx="4919980" cy="3103880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12825,8 +12825,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6327775" y="1807210"/>
-        <a:ext cx="6885940" cy="3380740"/>
+        <a:off x="6677025" y="1755775"/>
+        <a:ext cx="7270115" cy="3277870"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13099,36 +13099,36 @@
   <sheetPr/>
   <dimension ref="B5:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="15.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="12.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
-    <col min="9" max="10" width="19.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="11.5047619047619" customWidth="1"/>
-    <col min="12" max="12" width="20.0857142857143" customWidth="1"/>
-    <col min="13" max="13" width="11.5047619047619" customWidth="1"/>
-    <col min="14" max="14" width="34.7428571428571" customWidth="1"/>
-    <col min="15" max="15" width="11.5047619047619" customWidth="1"/>
-    <col min="16" max="16" width="34.2666666666667" customWidth="1"/>
-    <col min="17" max="17" width="17.6857142857143" customWidth="1"/>
-    <col min="18" max="18" width="11.5047619047619" customWidth="1"/>
-    <col min="19" max="19" width="20.0857142857143" customWidth="1"/>
-    <col min="20" max="20" width="11.5047619047619" customWidth="1"/>
-    <col min="21" max="21" width="14.9047619047619" customWidth="1"/>
-    <col min="22" max="22" width="11.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="15.7117117117117" customWidth="1"/>
+    <col min="3" max="3" width="14.1441441441441" customWidth="1"/>
+    <col min="4" max="4" width="15.2882882882883" customWidth="1"/>
+    <col min="5" max="5" width="12.1441441441441" customWidth="1"/>
+    <col min="6" max="6" width="17.4324324324324" customWidth="1"/>
+    <col min="7" max="7" width="17.5675675675676" customWidth="1"/>
+    <col min="8" max="8" width="20.7117117117117" customWidth="1"/>
+    <col min="9" max="10" width="19.5675675675676" customWidth="1"/>
+    <col min="11" max="11" width="11.5045045045045" customWidth="1"/>
+    <col min="12" max="12" width="20.0900900900901" customWidth="1"/>
+    <col min="13" max="13" width="11.5045045045045" customWidth="1"/>
+    <col min="14" max="14" width="34.7387387387387" customWidth="1"/>
+    <col min="15" max="15" width="11.5045045045045" customWidth="1"/>
+    <col min="16" max="16" width="34.2702702702703" customWidth="1"/>
+    <col min="17" max="17" width="17.6846846846847" customWidth="1"/>
+    <col min="18" max="18" width="11.5045045045045" customWidth="1"/>
+    <col min="19" max="19" width="20.0900900900901" customWidth="1"/>
+    <col min="20" max="20" width="11.5045045045045" customWidth="1"/>
+    <col min="21" max="21" width="14.9009009009009" customWidth="1"/>
+    <col min="22" max="22" width="11.5045045045045" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="15.75"/>
-    <row r="6" ht="26.25" spans="8:10">
+    <row r="5" ht="15.3"/>
+    <row r="6" ht="26.1" spans="8:10">
       <c r="H6" s="3" t="s">
         <v>0</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="21.75" spans="2:10">
+    <row r="8" ht="21.3" spans="2:10">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
@@ -13155,7 +13155,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" ht="15.75" spans="2:3">
+    <row r="9" ht="15.3" spans="2:3">
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:17">
+    <row r="10" ht="15.3" spans="2:17">
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
@@ -13216,7 +13216,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19">
-        <f t="shared" ref="F11:F15" si="0">IF(B11&lt;&gt;"",AVERAGE(C11:E11),0)</f>
+        <f>IF(B11&lt;&gt;"",(C11*D11*E11/10000),0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="19"/>
@@ -13236,7 +13236,7 @@
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(B12&lt;&gt;"",(C12*D12*E12/10000),0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="21"/>
@@ -13256,7 +13256,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(B13&lt;&gt;"",(C13*D13*E13/10000),0)</f>
         <v>0</v>
       </c>
       <c r="G13" s="21"/>
@@ -13276,7 +13276,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19">
-        <f t="shared" si="0"/>
+        <f>IF(B14&lt;&gt;"",(C14*D14*E14/10000),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="21"/>
@@ -13290,13 +13290,13 @@
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
     </row>
-    <row r="15" ht="15.75" spans="2:17">
+    <row r="15" ht="15.3" spans="2:17">
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23">
-        <f t="shared" si="0"/>
+        <f>IF(B15&lt;&gt;"",(C15*D15*E15/10000),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="23"/>
@@ -13330,7 +13330,7 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
     </row>
-    <row r="18" ht="15.75" spans="2:17">
+    <row r="18" ht="15.3" spans="2:17">
       <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
     </row>
-    <row r="19" ht="15.75" spans="2:17">
+    <row r="19" ht="15.3" spans="2:17">
       <c r="B19" s="15" t="s">
         <v>20</v>
       </c>
@@ -13383,12 +13383,12 @@
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29">
-        <f t="shared" ref="F20:F24" si="1">E20/60</f>
+        <f t="shared" ref="F20:F24" si="0">E20/60</f>
         <v>0</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="30">
-        <f t="shared" ref="H20:H24" si="2">G20/60</f>
+        <f t="shared" ref="H20:H24" si="1">G20/60</f>
         <v>0</v>
       </c>
       <c r="J20" s="41"/>
@@ -13406,12 +13406,12 @@
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
       <c r="F21" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="41"/>
@@ -13429,12 +13429,12 @@
       <c r="D22" s="27"/>
       <c r="E22" s="28"/>
       <c r="F22" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="41"/>
@@ -13452,27 +13452,27 @@
       <c r="D23" s="27"/>
       <c r="E23" s="28"/>
       <c r="F23" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="2:8">
+    <row r="24" ht="15.3" spans="2:8">
       <c r="B24" s="33"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13491,32 +13491,32 @@
   <sheetPr/>
   <dimension ref="B2:AC9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="15.752380952381" customWidth="1"/>
-    <col min="7" max="7" width="16.6857142857143" customWidth="1"/>
+    <col min="2" max="2" width="15.7567567567568" customWidth="1"/>
+    <col min="7" max="7" width="16.6846846846847" customWidth="1"/>
     <col min="8" max="9" width="19.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="4.99047619047619" customWidth="1"/>
-    <col min="11" max="11" width="11.5047619047619" customWidth="1"/>
-    <col min="12" max="12" width="20.0857142857143" customWidth="1"/>
-    <col min="13" max="13" width="11.5047619047619" customWidth="1"/>
-    <col min="14" max="14" width="14.9047619047619" customWidth="1"/>
-    <col min="15" max="15" width="11.5047619047619" customWidth="1"/>
-    <col min="16" max="16" width="15.1142857142857" customWidth="1"/>
-    <col min="17" max="17" width="17.6857142857143" customWidth="1"/>
-    <col min="18" max="18" width="11.5047619047619" customWidth="1"/>
-    <col min="19" max="19" width="20.0857142857143" customWidth="1"/>
-    <col min="20" max="20" width="11.5047619047619" customWidth="1"/>
-    <col min="21" max="21" width="14.9047619047619" customWidth="1"/>
-    <col min="22" max="22" width="11.5047619047619" customWidth="1"/>
+    <col min="10" max="10" width="4.99099099099099" customWidth="1"/>
+    <col min="11" max="11" width="11.5045045045045" customWidth="1"/>
+    <col min="12" max="12" width="20.0900900900901" customWidth="1"/>
+    <col min="13" max="13" width="11.5045045045045" customWidth="1"/>
+    <col min="14" max="14" width="14.9009009009009" customWidth="1"/>
+    <col min="15" max="15" width="11.5045045045045" customWidth="1"/>
+    <col min="16" max="16" width="15.1171171171171" customWidth="1"/>
+    <col min="17" max="17" width="17.6846846846847" customWidth="1"/>
+    <col min="18" max="18" width="11.5045045045045" customWidth="1"/>
+    <col min="19" max="19" width="20.0900900900901" customWidth="1"/>
+    <col min="20" max="20" width="11.5045045045045" customWidth="1"/>
+    <col min="21" max="21" width="14.9009009009009" customWidth="1"/>
+    <col min="22" max="22" width="11.5045045045045" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.75"/>
-    <row r="3" ht="26.25" spans="7:9">
+    <row r="2" ht="15.3"/>
+    <row r="3" ht="26.1" spans="7:9">
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="7:9">
+    <row r="5" ht="15.3" spans="7:9">
       <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
@@ -13545,12 +13545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="2:2">
+    <row r="7" ht="28.25" spans="2:2">
       <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="2:29">
+    <row r="8" ht="18.4" spans="2:29">
       <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
@@ -13602,11 +13602,11 @@
   <sheetPr/>
   <dimension ref="A3:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelRow="3" outlineLevelCol="5"/>
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
